--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Burlet', 'Cabella', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Terrier', 'Terrier', 'Rodon']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Germain', 'Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Duverne']</t>
-  </si>
-  <si>
-    <t>['Lega', 'Aouar']</t>
-  </si>
-  <si>
-    <t>['Djiku', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Fortes', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Ben_Seguir', 'Maripan']</t>
+    <t>['Aouar', 'Cherki']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Ramos', 'Ruiz']</t>
+  </si>
+  <si>
+    <t>['Pellenard', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Ugbo', 'Conte', 'Conte', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Balogin', 'Serhuis', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Aboukhlal', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Massolin', 'Cisse']</t>
+  </si>
+  <si>
+    <t>['Pereira', 'Ganiou', 'Boura']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Sanson', 'Perrin']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lorient</t>
   </si>
   <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
     <t>Nantes</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Camara', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Moffi']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Ponceau']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Cajuste', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Roure']</t>
-  </si>
-  <si>
-    <t>['Gigot']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Healey', 'Aboukhlal', 'Desler']</t>
-  </si>
-  <si>
-    <t>['Mbappe', 'Mbappe', 'Kipembe']</t>
+    <t>['Guillaume', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Roure', 'Silla']</t>
+  </si>
+  <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
+    <t>['Assignon', 'Theate', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Harit', 'Payet', 'Bailly']</t>
+  </si>
+  <si>
+    <t>['Gomes', 'David']</t>
+  </si>
+  <si>
+    <t>['Diop']</t>
+  </si>
+  <si>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>['Sakho', 'Savanier', 'Mavididi']</t>
+  </si>
+  <si>
+    <t>['Delort', 'Mollet']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +552,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +631,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +660,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +668,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,10 +677,10 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,7 +689,7 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -697,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,7 +706,7 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -755,7 +755,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,7 +776,7 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>3</v>
@@ -813,7 +813,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Aouar', 'Cherki']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Ramos', 'Ruiz']</t>
-  </si>
-  <si>
-    <t>['Pellenard', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Ugbo', 'Conte', 'Conte', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Balogin', 'Serhuis', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Aboukhlal', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Massolin', 'Cisse']</t>
-  </si>
-  <si>
-    <t>['Pereira', 'Ganiou', 'Boura']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Sanson', 'Perrin']</t>
+    <t>['Maurer', 'Rajot', 'Maurer']</t>
+  </si>
+  <si>
+    <t>['Rodon', 'Wooh']</t>
+  </si>
+  <si>
+    <t>['Del_Castillo', 'Brassier']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
+    <t>['Abdelhamid', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'Ratao', 'Healey']</t>
+  </si>
+  <si>
+    <t>['Le_Fee', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Laborde', 'Bryan']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Savanier', 'Savanier', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Pereira']</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
     <t>OL</t>
   </si>
   <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
     <t>OM</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>['Guillaume', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Roure', 'Silla']</t>
-  </si>
-  <si>
-    <t>['Elis']</t>
-  </si>
-  <si>
-    <t>['Assignon', 'Theate', 'Majer']</t>
-  </si>
-  <si>
-    <t>['Harit', 'Payet', 'Bailly']</t>
-  </si>
-  <si>
-    <t>['Gomes', 'David']</t>
-  </si>
-  <si>
-    <t>['Diop']</t>
-  </si>
-  <si>
-    <t>['Innocent']</t>
-  </si>
-  <si>
-    <t>['Sakho', 'Savanier', 'Mavididi']</t>
-  </si>
-  <si>
-    <t>['Delort', 'Mollet']</t>
+    <t>['Delort', 'Pallois']</t>
+  </si>
+  <si>
+    <t>['Odobert']</t>
+  </si>
+  <si>
+    <t>['Martin', 'Burlet', 'Burlet']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Gonzalez']</t>
+  </si>
+  <si>
+    <t>['Ben_Yedder', 'Aguilar', 'Aguilar']</t>
+  </si>
+  <si>
+    <t>['Corduan', 'Doumbia']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Soler', 'Neymar']</t>
+  </si>
+  <si>
+    <t>['Cherki', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Clauss', 'Ounahi', 'Clauss']</t>
   </si>
 </sst>
 </file>
@@ -552,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
         <v>8</v>
@@ -561,7 +558,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>2</v>
@@ -581,7 +578,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -590,10 +587,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,7 +599,7 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -622,7 +619,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,7 +628,7 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -639,7 +636,7 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -648,10 +645,10 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,7 +657,7 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,7 +665,7 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -677,7 +674,7 @@
         <v>22</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>3</v>
@@ -709,16 +706,16 @@
         <v>3</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -738,16 +735,16 @@
         <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -755,7 +752,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,19 +761,19 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -784,7 +781,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,19 +790,19 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -813,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -822,19 +819,19 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,121 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Maurer', 'Rajot', 'Maurer']</t>
-  </si>
-  <si>
-    <t>['Rodon', 'Wooh']</t>
-  </si>
-  <si>
-    <t>['Del_Castillo', 'Brassier']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'Ratao', 'Healey']</t>
-  </si>
-  <si>
-    <t>['Le_Fee', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Laborde', 'Bryan']</t>
-  </si>
-  <si>
-    <t>['Tchato', 'Savanier', 'Savanier', 'Wahi']</t>
-  </si>
-  <si>
-    <t>['Pereira']</t>
+    <t>['Attal', 'Attal', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Jakobs', 'Sibide', 'Embolo']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Blas', 'Mollet']</t>
+  </si>
+  <si>
+    <t>['Ito', 'Cajuste']</t>
+  </si>
+  <si>
+    <t>['Borges']</t>
+  </si>
+  <si>
+    <t>['Mendy']</t>
+  </si>
+  <si>
+    <t>['Bailly']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson']</t>
+  </si>
+  <si>
+    <t>['Innocent']</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Reims</t>
   </si>
   <si>
     <t>Clermont</t>
   </si>
   <si>
-    <t>Rennes</t>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
     <t>Auxerre</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
     <t>PSG</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>['Delort', 'Pallois']</t>
-  </si>
-  <si>
-    <t>['Odobert']</t>
-  </si>
-  <si>
-    <t>['Martin', 'Burlet', 'Burlet']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Gonzalez']</t>
-  </si>
-  <si>
-    <t>['Ben_Yedder', 'Aguilar', 'Aguilar']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Doumbia']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler', 'Neymar']</t>
-  </si>
-  <si>
-    <t>['Cherki', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Ounahi', 'Clauss']</t>
+    <t>['Diallo', 'Silla', 'Silla', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Le_Marchand']</t>
+  </si>
+  <si>
+    <t>['Elis', 'Lemarechal']</t>
+  </si>
+  <si>
+    <t>['Odobert', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Gradit', 'Varane']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Gusto']</t>
+  </si>
+  <si>
+    <t>['Dejaegere', 'Dallinga']</t>
+  </si>
+  <si>
+    <t>['Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Danois', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Verrati']</t>
   </si>
 </sst>
 </file>
@@ -546,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -570,15 +573,15 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
@@ -587,7 +590,7 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
@@ -604,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -619,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -628,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -645,7 +648,7 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -662,7 +665,7 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="B6">
         <v>2</v>
@@ -677,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -686,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -703,27 +706,27 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -732,7 +735,7 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -741,7 +744,7 @@
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -749,10 +752,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -761,27 +764,27 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -790,7 +793,7 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -799,7 +802,7 @@
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="I10">
         <v>2</v>
@@ -807,7 +810,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -822,16 +825,16 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Attal', 'Attal', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Sibide', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Cajuste']</t>
-  </si>
-  <si>
-    <t>['Borges']</t>
-  </si>
-  <si>
-    <t>['Mendy']</t>
-  </si>
-  <si>
-    <t>['Bailly']</t>
-  </si>
-  <si>
-    <t>['Gudmundsson']</t>
-  </si>
-  <si>
-    <t>['Innocent']</t>
+    <t>['Santamaria', 'Assignon', 'Terrier']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Capelle', 'Camara']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Moalida']</t>
+  </si>
+  <si>
+    <t>['Balde', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Payet']</t>
+  </si>
+  <si>
+    <t>['Pallois', 'Coco']</t>
+  </si>
+  <si>
+    <t>['Bellegarde', 'Gameiro', 'Le_Marchand']</t>
+  </si>
+  <si>
+    <t>['Cisse', 'Massolin']</t>
+  </si>
+  <si>
+    <t>['Jeanvier', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Sanchez']</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Nice</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>PSG</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Silla', 'Silla', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Verrati']</t>
+    <t>['Mounie']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Maripan']</t>
+  </si>
+  <si>
+    <t>['Healey']</t>
+  </si>
+  <si>
+    <t>['Attal']</t>
+  </si>
+  <si>
+    <t>['Vidal']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Boura', 'Boura', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Nordin', 'Tchato']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Kipembe', 'Ramos']</t>
+  </si>
+  <si>
+    <t>['Innocent', 'Matsima', 'Matsima']</t>
   </si>
 </sst>
 </file>
@@ -564,7 +564,7 @@
         <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -573,12 +573,12 @@
         <v>38</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +593,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -602,15 +602,15 @@
         <v>39</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
@@ -622,7 +622,7 @@
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -631,15 +631,15 @@
         <v>40</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -651,7 +651,7 @@
         <v>2</v>
       </c>
       <c r="F5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -660,15 +660,15 @@
         <v>41</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
         <v>1</v>
-      </c>
-      <c r="F7">
-        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,15 +718,15 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -747,15 +747,15 @@
         <v>44</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -793,10 +793,10 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,15 +805,15 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
         <v>17</v>
@@ -825,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
@@ -834,7 +834,7 @@
         <v>47</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Attal', 'Attal', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Sibide', 'Embolo']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo', 'Traore']</t>
-  </si>
-  <si>
-    <t>['Blas', 'Mollet']</t>
-  </si>
-  <si>
-    <t>['Ito', 'Cajuste']</t>
+    <t>['Onaiwu', 'Onaiwu', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Mollet', 'Coco', 'Blas']</t>
+  </si>
+  <si>
+    <t>['Chardonnet', 'Le_Douaron']</t>
+  </si>
+  <si>
+    <t>['Medina', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Mavididi', 'Sakho', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Beka', 'Beka']</t>
+  </si>
+  <si>
+    <t>['Delaine']</t>
   </si>
   <si>
     <t>['Borges']</t>
   </si>
   <si>
-    <t>['Mendy']</t>
-  </si>
-  <si>
-    <t>['Bailly']</t>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>['Ounahi', 'Rongier']</t>
+  </si>
+  <si>
+    <t>['Porozo', 'Odobert']</t>
   </si>
   <si>
     <t>['Gudmundsson']</t>
   </si>
   <si>
-    <t>['Innocent']</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>['Diallo', 'Silla', 'Silla', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Elis', 'Lemarechal']</t>
-  </si>
-  <si>
-    <t>['Odobert', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Varane']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Gusto']</t>
-  </si>
-  <si>
-    <t>['Dejaegere', 'Dallinga']</t>
-  </si>
-  <si>
-    <t>['Sainte-Luce']</t>
-  </si>
-  <si>
-    <t>['Danois', 'Autret']</t>
-  </si>
-  <si>
-    <t>['Verrati']</t>
+    <t>['Ruiz', 'Messi']</t>
+  </si>
+  <si>
+    <t>['Dugimont', 'Autret', 'Dugimont', 'Dugimont']</t>
+  </si>
+  <si>
+    <t>['Flips', 'Balogin', 'Abdelhamid']</t>
+  </si>
+  <si>
+    <t>['Theate', 'Majer']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Le_Fee']</t>
+  </si>
+  <si>
+    <t>['Alioui', 'Masson', 'Capelle']</t>
+  </si>
+  <si>
+    <t>['Diallo']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -558,22 +555,22 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I2">
-        <v>4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -587,65 +584,65 @@
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E3">
         <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="s">
         <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -654,13 +651,13 @@
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I5">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -668,71 +665,71 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -741,100 +738,100 @@
         <v>2</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +40,121 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Santamaria', 'Assignon', 'Terrier']</t>
-  </si>
-  <si>
-    <t>['Mendy', 'Capelle', 'Camara']</t>
-  </si>
-  <si>
-    <t>['Flips', 'Moalida']</t>
-  </si>
-  <si>
-    <t>['Balde', 'Ugbo']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Payet']</t>
-  </si>
-  <si>
-    <t>['Pallois', 'Coco']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Gameiro', 'Le_Marchand']</t>
-  </si>
-  <si>
-    <t>['Cisse', 'Massolin']</t>
-  </si>
-  <si>
-    <t>['Jeanvier', 'Dugimont']</t>
-  </si>
-  <si>
-    <t>['Sanchez']</t>
+    <t>['Ripart', 'Chavalerin', 'Balde', 'Ugbo']</t>
+  </si>
+  <si>
+    <t>['Healey', 'Desler', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo', 'Traore']</t>
+  </si>
+  <si>
+    <t>['Autret']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Lega']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Elis']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Ounahi']</t>
+  </si>
+  <si>
+    <t>['Djiku']</t>
+  </si>
+  <si>
+    <t>['Bryan']</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
   </si>
   <si>
     <t>Rennes</t>
   </si>
   <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
     <t>Lille</t>
   </si>
   <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>['Mounie']</t>
-  </si>
-  <si>
     <t>[]</t>
   </si>
   <si>
-    <t>['Maripan']</t>
-  </si>
-  <si>
-    <t>['Healey']</t>
-  </si>
-  <si>
-    <t>['Attal']</t>
-  </si>
-  <si>
-    <t>['Vidal']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Boura', 'Boura', 'Gradit']</t>
-  </si>
-  <si>
-    <t>['Wahi', 'Nordin', 'Tchato']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Kipembe', 'Ramos']</t>
-  </si>
-  <si>
-    <t>['Innocent', 'Matsima', 'Matsima']</t>
+    <t>['Massolin']</t>
+  </si>
+  <si>
+    <t>['Pallois']</t>
+  </si>
+  <si>
+    <t>['Mendes', 'Verrati']</t>
+  </si>
+  <si>
+    <t>['Wahi', 'Sainte-Luce']</t>
+  </si>
+  <si>
+    <t>['Lopy']</t>
+  </si>
+  <si>
+    <t>['Mendy', 'Corduan', 'Guillaume']</t>
+  </si>
+  <si>
+    <t>['Gudmundsson', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Silla', 'Michelin']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +546,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,10 +558,10 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" t="s">
         <v>28</v>
@@ -578,7 +575,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -593,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -636,7 +633,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -648,16 +645,16 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
       </c>
       <c r="H5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -665,10 +662,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,24 +677,24 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
       </c>
       <c r="H6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="B7">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -709,24 +706,24 @@
         <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
       </c>
       <c r="H7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
         <v>14</v>
@@ -735,24 +732,24 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
       </c>
       <c r="H8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I8">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -773,7 +770,7 @@
         <v>35</v>
       </c>
       <c r="H9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I9">
         <v>3</v>
@@ -781,7 +778,7 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -793,16 +790,16 @@
         <v>26</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -810,7 +807,7 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -825,13 +822,13 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11">
         <v>3</v>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -40,124 +40,124 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Palaversa', 'Ripart', 'Ripart', 'Balde']</t>
-  </si>
-  <si>
-    <t>['Assignon', 'Santamaria', 'Kalimuendo', 'Theate']</t>
-  </si>
-  <si>
-    <t>['Girotto', 'Ganago', 'Castelletto']</t>
-  </si>
-  <si>
-    <t>['Bellegarde', 'Perrin']</t>
-  </si>
-  <si>
-    <t>['Corduan', 'Capelle']</t>
-  </si>
-  <si>
-    <t>['Jakobs', 'Ben_Yedder']</t>
-  </si>
-  <si>
-    <t>['Da_Costa']</t>
-  </si>
-  <si>
-    <t>['Clauss', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Wahi']</t>
+    <t>['Del_Castillo', 'Duverne', 'Brassier']</t>
+  </si>
+  <si>
+    <t>['Masson', 'Doumbia', 'Mendy']</t>
+  </si>
+  <si>
+    <t>['Lipinski', 'Autret', 'Merdji']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Tagliafico', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['ChaÃ¯bi', 'Dejaegere']</t>
+  </si>
+  <si>
+    <t>['Laborde']</t>
+  </si>
+  <si>
+    <t>['Bailly', 'Kabore']</t>
+  </si>
+  <si>
+    <t>['Talbi']</t>
+  </si>
+  <si>
+    <t>['Andre']</t>
+  </si>
+  <si>
+    <t>['Kalimuendo']</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>['Simon']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Gameiro']</t>
+  </si>
+  <si>
+    <t>['Embolo']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Medina']</t>
+  </si>
+  <si>
+    <t>['Messi']</t>
   </si>
   <si>
     <t>[]</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Rajot']</t>
-  </si>
-  <si>
-    <t>['Desler']</t>
-  </si>
-  <si>
-    <t>['Gradit', 'Ganiou']</t>
-  </si>
-  <si>
-    <t>['Abdelhamid']</t>
-  </si>
-  <si>
-    <t>['Pelon', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Bryan', 'Brahimi']</t>
-  </si>
-  <si>
-    <t>['Martin']</t>
-  </si>
-  <si>
-    <t>['Duverne', 'Magnetti', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Lega', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Gonzalez']</t>
+    <t>['Balde', 'Salmier']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Lopy']</t>
+  </si>
+  <si>
+    <t>['Hamouma', 'Gonzalez']</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>3</v>
@@ -561,7 +561,7 @@
         <v>18</v>
       </c>
       <c r="E2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -578,7 +578,7 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -590,10 +590,10 @@
         <v>19</v>
       </c>
       <c r="E3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="1">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -622,7 +622,7 @@
         <v>3</v>
       </c>
       <c r="F4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G4" t="s">
         <v>30</v>
@@ -636,7 +636,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="1">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>3</v>
@@ -648,10 +648,10 @@
         <v>21</v>
       </c>
       <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
         <v>2</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
       </c>
       <c r="G5" t="s">
         <v>31</v>
@@ -665,10 +665,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
         <v>12</v>
@@ -680,7 +680,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" t="s">
         <v>32</v>
@@ -689,15 +689,15 @@
         <v>42</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
@@ -706,10 +706,10 @@
         <v>23</v>
       </c>
       <c r="E7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" t="s">
         <v>33</v>
@@ -718,12 +718,12 @@
         <v>43</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -735,10 +735,10 @@
         <v>24</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8" t="s">
         <v>34</v>
@@ -752,10 +752,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="s">
         <v>15</v>
@@ -764,10 +764,10 @@
         <v>25</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G9" t="s">
         <v>35</v>
@@ -776,15 +776,15 @@
         <v>45</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s">
         <v>16</v>
@@ -796,7 +796,7 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G10" t="s">
         <v>36</v>
@@ -805,12 +805,12 @@
         <v>46</v>
       </c>
       <c r="I10">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="1">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -822,10 +822,10 @@
         <v>27</v>
       </c>
       <c r="E11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G11" t="s">
         <v>37</v>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -14,7 +14,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+  <si>
+    <t>Score dom</t>
+  </si>
   <si>
     <t>Points dom</t>
   </si>
@@ -40,124 +43,127 @@
     <t>Points exté</t>
   </si>
   <si>
-    <t>['Del_Castillo', 'Duverne', 'Brassier']</t>
-  </si>
-  <si>
-    <t>['Masson', 'Doumbia', 'Mendy']</t>
-  </si>
-  <si>
-    <t>['Lipinski', 'Autret', 'Merdji']</t>
-  </si>
-  <si>
-    <t>['Lepenant', 'Tagliafico', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['ChaÃ¯bi', 'Dejaegere']</t>
-  </si>
-  <si>
-    <t>['Laborde']</t>
-  </si>
-  <si>
-    <t>['Bailly', 'Kabore']</t>
-  </si>
-  <si>
-    <t>['Talbi']</t>
-  </si>
-  <si>
-    <t>['Andre']</t>
-  </si>
-  <si>
-    <t>['Kalimuendo']</t>
+    <t>Score exte</t>
+  </si>
+  <si>
+    <t>['Abdelhamid', 'Zeneli', 'Serhuis', 'Ito']</t>
+  </si>
+  <si>
+    <t>['Lebas', 'Diallo', 'Lebas']</t>
+  </si>
+  <si>
+    <t>['Le_Douaron', 'Lemarechal', 'Del_Castillo']</t>
+  </si>
+  <si>
+    <t>['Desler', 'Spierings', 'ChaÃ¯bi']</t>
+  </si>
+  <si>
+    <t>['Sanches', 'Soler', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Ben_Seguir']</t>
+  </si>
+  <si>
+    <t>['Pepe', 'Diop']</t>
+  </si>
+  <si>
+    <t>['Guessand', 'Guessand']</t>
+  </si>
+  <si>
+    <t>['Gastien', 'Boyer']</t>
+  </si>
+  <si>
+    <t>['Sanson', 'Le_Marchand']</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
   </si>
   <si>
     <t>Brest</t>
   </si>
   <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Auxerre</t>
+    <t>Montpellier</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Nice</t>
+    <t>Lille</t>
   </si>
   <si>
     <t>OM</t>
   </si>
   <si>
+    <t>Rennes</t>
+  </si>
+  <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
     <t>Troyes</t>
   </si>
   <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>['Simon']</t>
-  </si>
-  <si>
-    <t>['Perrin', 'Gameiro']</t>
-  </si>
-  <si>
-    <t>['Embolo']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Medina']</t>
-  </si>
-  <si>
-    <t>['Messi']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Balde', 'Salmier']</t>
-  </si>
-  <si>
-    <t>['Versini']</t>
-  </si>
-  <si>
-    <t>['Lopy']</t>
-  </si>
-  <si>
-    <t>['Hamouma', 'Gonzalez']</t>
+    <t>['Da_Costa', 'Pellenard']</t>
+  </si>
+  <si>
+    <t>['Valencia', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Bamba', 'Camara', 'Bamba', 'Bamba']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Maouassa']</t>
+  </si>
+  <si>
+    <t>['Caqueret', 'Bercola']</t>
+  </si>
+  <si>
+    <t>['Yoro', 'Ribeiro']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Kabore', 'Lopez']</t>
+  </si>
+  <si>
+    <t>['Wooh', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Matsima', 'Matsima']</t>
+  </si>
+  <si>
+    <t>['Palaversa', 'Salmier']</t>
   </si>
 </sst>
 </file>
@@ -515,13 +521,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -546,295 +552,361 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2">
         <v>0</v>
       </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="K2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3">
+        <v>3</v>
+      </c>
+      <c r="G3">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4">
+        <v>3</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6">
+        <v>3</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>34</v>
+      </c>
+      <c r="I6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>1</v>
       </c>
-      <c r="G2" t="s">
-        <v>28</v>
-      </c>
-      <c r="H2" t="s">
-        <v>38</v>
-      </c>
-      <c r="I2">
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3">
-        <v>3</v>
-      </c>
-      <c r="F3">
-        <v>2</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" t="s">
-        <v>39</v>
-      </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1">
-        <v>9</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>2</v>
-      </c>
-      <c r="G5" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>41</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6">
-        <v>2</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>42</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1">
-        <v>1</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s">
+        <v>46</v>
+      </c>
+      <c r="J8">
+        <v>3</v>
+      </c>
+      <c r="K8">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7" t="s">
-        <v>33</v>
-      </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1">
-        <v>3</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>34</v>
-      </c>
-      <c r="H8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1">
         <v>5</v>
       </c>
       <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="C9" t="s">
-        <v>15</v>
-      </c>
       <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
+        <v>17</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9" t="s">
+        <v>37</v>
+      </c>
+      <c r="I9" t="s">
+        <v>47</v>
+      </c>
+      <c r="J9">
         <v>1</v>
       </c>
-      <c r="F9">
+      <c r="K9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1">
+        <v>4</v>
+      </c>
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
         <v>1</v>
       </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9">
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" t="s">
+        <v>48</v>
+      </c>
+      <c r="J10">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1">
-        <v>6</v>
-      </c>
-      <c r="B10">
+      <c r="K10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1">
+        <v>8</v>
+      </c>
+      <c r="B11">
+        <v>4</v>
+      </c>
+      <c r="C11">
         <v>1</v>
       </c>
-      <c r="C10" t="s">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
-      <c r="E10">
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" t="s">
+        <v>29</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11">
+        <v>2</v>
+      </c>
+      <c r="H11" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11">
         <v>1</v>
       </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>7</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11" t="s">
-        <v>37</v>
-      </c>
-      <c r="H11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11">
-        <v>3</v>
+      <c r="K11">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -46,124 +46,124 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Abdelhamid', 'Zeneli', 'Serhuis', 'Ito']</t>
-  </si>
-  <si>
-    <t>['Lebas', 'Diallo', 'Lebas']</t>
-  </si>
-  <si>
-    <t>['Le_Douaron', 'Lemarechal', 'Del_Castillo']</t>
-  </si>
-  <si>
-    <t>['Desler', 'Spierings', 'ChaÃ¯bi']</t>
-  </si>
-  <si>
-    <t>['Sanches', 'Soler', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>['Serrano', 'Ben_Seguir']</t>
-  </si>
-  <si>
-    <t>['Pepe', 'Diop']</t>
-  </si>
-  <si>
-    <t>['Guessand', 'Guessand']</t>
-  </si>
-  <si>
-    <t>['Gastien', 'Boyer']</t>
-  </si>
-  <si>
-    <t>['Sanson', 'Le_Marchand']</t>
+    <t>['Ben_Yedder', 'Embolo', 'Embolo', 'Jakobs', 'Maripan']</t>
+  </si>
+  <si>
+    <t>['Khazri', 'Savanier', 'Nordin']</t>
+  </si>
+  <si>
+    <t>['Cabella', 'David', 'Martin']</t>
+  </si>
+  <si>
+    <t>['Aouar', 'Lega', 'Tagliafico']</t>
+  </si>
+  <si>
+    <t>['Brassier', 'Tavares']</t>
+  </si>
+  <si>
+    <t>['Rongier', 'Balerdi']</t>
+  </si>
+  <si>
+    <t>['Gouiri', 'Assignon']</t>
+  </si>
+  <si>
+    <t>['Ponceau', 'Talbi']</t>
+  </si>
+  <si>
+    <t>['Porozo']</t>
+  </si>
+  <si>
+    <t>['Pepe']</t>
+  </si>
+  <si>
+    <t>AS Monaco</t>
+  </si>
+  <si>
+    <t>Montpellier</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>OM</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Lorient</t>
+  </si>
+  <si>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nice</t>
   </si>
   <si>
     <t>Reims</t>
   </si>
   <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Clermont</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>Lens</t>
+  </si>
+  <si>
     <t>Ajaccio</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>AS Monaco</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
     <t>Angers</t>
   </si>
   <si>
-    <t>Montpellier</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>Lille</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
-  </si>
-  <si>
-    <t>Lorient</t>
-  </si>
-  <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>['Da_Costa', 'Pellenard']</t>
-  </si>
-  <si>
-    <t>['Valencia', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Bamba', 'Camara', 'Bamba', 'Bamba']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Maouassa']</t>
-  </si>
-  <si>
-    <t>['Caqueret', 'Bercola']</t>
-  </si>
-  <si>
-    <t>['Yoro', 'Ribeiro']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Kabore', 'Lopez']</t>
-  </si>
-  <si>
-    <t>['Wooh', 'Gouiri']</t>
-  </si>
-  <si>
-    <t>['Matsima', 'Matsima']</t>
-  </si>
-  <si>
-    <t>['Palaversa', 'Salmier']</t>
+    <t>['Abdelhamid', 'Zeneli']</t>
+  </si>
+  <si>
+    <t>['Coco', 'Guessand', 'Ganago']</t>
+  </si>
+  <si>
+    <t>['Ratao', 'ChaÃ¯bi', 'Van_den_Boomen']</t>
+  </si>
+  <si>
+    <t>['H.Diallo']</t>
+  </si>
+  <si>
+    <t>['Boyer', 'Bayo', 'Borges']</t>
+  </si>
+  <si>
+    <t>['Messi', 'Mbappe']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['Sylla', 'Fortes']</t>
+  </si>
+  <si>
+    <t>['Gonzalez', 'Hamouma']</t>
+  </si>
+  <si>
+    <t>['Alioui']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +561,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -576,7 +576,7 @@
         <v>20</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2">
         <v>2</v>
@@ -591,18 +591,18 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -614,7 +614,7 @@
         <v>3</v>
       </c>
       <c r="G3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H3" t="s">
         <v>31</v>
@@ -623,21 +623,21 @@
         <v>41</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
@@ -649,7 +649,7 @@
         <v>3</v>
       </c>
       <c r="G4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H4" t="s">
         <v>32</v>
@@ -658,10 +658,10 @@
         <v>42</v>
       </c>
       <c r="J4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -669,7 +669,7 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -684,7 +684,7 @@
         <v>3</v>
       </c>
       <c r="G5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H5" t="s">
         <v>33</v>
@@ -696,18 +696,18 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B6">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C6">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
         <v>14</v>
@@ -716,10 +716,10 @@
         <v>24</v>
       </c>
       <c r="F6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -728,10 +728,10 @@
         <v>44</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K6">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -766,18 +766,18 @@
         <v>1</v>
       </c>
       <c r="K7">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
@@ -789,7 +789,7 @@
         <v>2</v>
       </c>
       <c r="G8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" t="s">
         <v>36</v>
@@ -798,10 +798,10 @@
         <v>46</v>
       </c>
       <c r="J8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -836,18 +836,18 @@
         <v>1</v>
       </c>
       <c r="K9">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B10">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
         <v>18</v>
@@ -856,7 +856,7 @@
         <v>28</v>
       </c>
       <c r="F10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>2</v>
@@ -868,18 +868,18 @@
         <v>48</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -891,10 +891,10 @@
         <v>29</v>
       </c>
       <c r="F11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" t="s">
         <v>39</v>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
       <c r="K11">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/jour8.xlsx
+++ b/jour8.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="49">
   <si>
     <t>Score dom</t>
   </si>
@@ -46,124 +46,121 @@
     <t>Score exte</t>
   </si>
   <si>
-    <t>['Ben_Yedder', 'Embolo', 'Embolo', 'Jakobs', 'Maripan']</t>
-  </si>
-  <si>
-    <t>['Khazri', 'Savanier', 'Nordin']</t>
-  </si>
-  <si>
-    <t>['Cabella', 'David', 'Martin']</t>
-  </si>
-  <si>
-    <t>['Aouar', 'Lega', 'Tagliafico']</t>
-  </si>
-  <si>
-    <t>['Brassier', 'Tavares']</t>
-  </si>
-  <si>
-    <t>['Rongier', 'Balerdi']</t>
-  </si>
-  <si>
-    <t>['Gouiri', 'Assignon']</t>
-  </si>
-  <si>
-    <t>['Ponceau', 'Talbi']</t>
-  </si>
-  <si>
-    <t>['Porozo']</t>
-  </si>
-  <si>
-    <t>['Pepe']</t>
+    <t>['Capelle', 'Corduan', 'Masson']</t>
+  </si>
+  <si>
+    <t>['Perrin', 'Bellegarde', 'Delaine']</t>
+  </si>
+  <si>
+    <t>['Majer', 'Wooh', 'Gouiri']</t>
+  </si>
+  <si>
+    <t>['Da_Costa', 'Dembele', 'Autret']</t>
+  </si>
+  <si>
+    <t>['Kabore', 'Kabore', 'Harit']</t>
+  </si>
+  <si>
+    <t>['Serrano', 'Henrique']</t>
+  </si>
+  <si>
+    <t>['Magnetti', 'Elis']</t>
+  </si>
+  <si>
+    <t>['David', 'Burlet']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>Angers</t>
+  </si>
+  <si>
+    <t>Strasbourg</t>
+  </si>
+  <si>
+    <t>Rennes</t>
+  </si>
+  <si>
+    <t>Auxerre</t>
+  </si>
+  <si>
+    <t>OM</t>
   </si>
   <si>
     <t>AS Monaco</t>
   </si>
   <si>
+    <t>Brest</t>
+  </si>
+  <si>
+    <t>Lille</t>
+  </si>
+  <si>
+    <t>PSG</t>
+  </si>
+  <si>
+    <t>Ajaccio</t>
+  </si>
+  <si>
+    <t>Reims</t>
+  </si>
+  <si>
     <t>Montpellier</t>
   </si>
   <si>
-    <t>Lille</t>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>Clermont</t>
   </si>
   <si>
     <t>OL</t>
   </si>
   <si>
-    <t>Brest</t>
-  </si>
-  <si>
-    <t>OM</t>
-  </si>
-  <si>
-    <t>Rennes</t>
+    <t>Troyes</t>
+  </si>
+  <si>
+    <t>Nantes</t>
+  </si>
+  <si>
+    <t>Toulouse</t>
+  </si>
+  <si>
+    <t>Lens</t>
   </si>
   <si>
     <t>Lorient</t>
   </si>
   <si>
-    <t>Troyes</t>
-  </si>
-  <si>
-    <t>Nice</t>
-  </si>
-  <si>
-    <t>Reims</t>
-  </si>
-  <si>
-    <t>Nantes</t>
-  </si>
-  <si>
-    <t>Toulouse</t>
-  </si>
-  <si>
-    <t>Strasbourg</t>
-  </si>
-  <si>
-    <t>Clermont</t>
-  </si>
-  <si>
-    <t>PSG</t>
-  </si>
-  <si>
-    <t>Auxerre</t>
-  </si>
-  <si>
-    <t>Lens</t>
-  </si>
-  <si>
-    <t>Ajaccio</t>
-  </si>
-  <si>
-    <t>Angers</t>
-  </si>
-  <si>
-    <t>['Abdelhamid', 'Zeneli']</t>
-  </si>
-  <si>
-    <t>['Coco', 'Guessand', 'Ganago']</t>
-  </si>
-  <si>
-    <t>['Ratao', 'ChaÃ¯bi', 'Van_den_Boomen']</t>
-  </si>
-  <si>
-    <t>['H.Diallo']</t>
-  </si>
-  <si>
-    <t>['Boyer', 'Bayo', 'Borges']</t>
-  </si>
-  <si>
-    <t>['Messi', 'Mbappe']</t>
-  </si>
-  <si>
-    <t>[]</t>
-  </si>
-  <si>
-    <t>['Sylla', 'Fortes']</t>
-  </si>
-  <si>
-    <t>['Gonzalez', 'Hamouma']</t>
-  </si>
-  <si>
-    <t>['Alioui']</t>
+    <t>['Lopy', 'Munetsi']</t>
+  </si>
+  <si>
+    <t>['Tchato', 'Wahi']</t>
+  </si>
+  <si>
+    <t>['Brahimi', 'Pepe']</t>
+  </si>
+  <si>
+    <t>['Versini']</t>
+  </si>
+  <si>
+    <t>['Lepenant', 'Lepenant', 'Sanchez', 'Lepenant']</t>
+  </si>
+  <si>
+    <t>['Palaversa']</t>
+  </si>
+  <si>
+    <t>['Pallois']</t>
+  </si>
+  <si>
+    <t>['Desler']</t>
+  </si>
+  <si>
+    <t>['Ganiou', 'Gradit']</t>
+  </si>
+  <si>
+    <t>['Pelon']</t>
   </si>
 </sst>
 </file>
@@ -561,10 +558,10 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2">
         <v>3</v>
@@ -573,103 +570,103 @@
         <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>2</v>
       </c>
       <c r="H2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F3">
         <v>3</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="1">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -678,7 +675,7 @@
         <v>13</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -687,24 +684,24 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -713,25 +710,25 @@
         <v>14</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6">
         <v>3</v>
       </c>
       <c r="K6">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -739,42 +736,42 @@
         <v>0</v>
       </c>
       <c r="B7">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" t="s">
         <v>15</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F7">
         <v>2</v>
       </c>
       <c r="G7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B8">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>3</v>
@@ -783,68 +780,68 @@
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8">
         <v>2</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B9">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F9">
         <v>2</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="1">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -853,60 +850,60 @@
         <v>18</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G10">
         <v>2</v>
       </c>
       <c r="H10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J10">
         <v>3</v>
       </c>
       <c r="K10">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
